--- a/example_data/iris.xlsx
+++ b/example_data/iris.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve">Iris flower dimensions</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">virginica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">cm</t>
@@ -66,11 +69,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,17 +96,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -110,18 +110,44 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -178,15 +204,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -194,7 +224,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,23 +232,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,7 +276,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading 1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
     <cellStyle name="Heading 2" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
@@ -244,15 +290,15 @@
   <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="15.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="15.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,7 +398,9 @@
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -390,16 +438,18 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -437,9 +487,9 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -475,23 +525,25 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>5.006</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="11" t="n">
         <v>5.936</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="11" t="n">
         <v>6.588</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="12" t="n">
+        <v>5.84333333333333</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -526,21 +578,23 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="11" t="n">
         <v>5.9</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="11" t="n">
         <v>6.5</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="12" t="n">
+        <v>5.8</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -575,13 +629,13 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -616,23 +670,25 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>9</v>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="n">
         <v>3.418</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="11" t="n">
         <v>2.77</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="11" t="n">
         <v>2.974</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="12" t="n">
+        <v>3.054</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -667,21 +723,23 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="n">
         <v>3.4</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="11" t="n">
         <v>2.8</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -716,13 +774,13 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -757,23 +815,25 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="n">
         <v>1.464</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="11" t="n">
         <v>4.26</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="11" t="n">
         <v>5.552</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="12" t="n">
+        <v>3.75866666666667</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -808,21 +868,23 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="n">
         <v>1.5</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="11" t="n">
         <v>4.35</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="11" t="n">
         <v>5.55</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="12" t="n">
+        <v>4.35</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -857,13 +919,13 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -898,23 +960,25 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>11</v>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="n">
         <v>0.244</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="11" t="n">
         <v>1.326</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="11" t="n">
         <v>2.026</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="12" t="n">
+        <v>1.19866666666667</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -950,20 +1014,22 @@
       <c r="AM15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="n">
         <v>0.2</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="11" t="n">
         <v>1.3</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="12" t="n">
+        <v>1.3</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>

--- a/example_data/iris.xlsx
+++ b/example_data/iris.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t xml:space="preserve">Iris flower dimensions</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">virginica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">cm</t>
@@ -69,12 +66,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -96,13 +92,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -110,44 +110,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans Devanagari"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="12"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -204,19 +178,15 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -224,7 +194,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,39 +202,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,7 +230,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="20" builtinId="53" customBuiltin="true"/>
     <cellStyle name="Heading 2" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
@@ -290,15 +244,15 @@
   <dimension ref="A1:AM16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="15.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="15.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,9 +352,7 @@
       <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -438,18 +390,16 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -487,9 +437,9 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -525,25 +475,23 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="9" t="n">
         <v>5.006</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="9" t="n">
         <v>5.936</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="9" t="n">
         <v>6.588</v>
       </c>
-      <c r="F6" s="12" t="n">
-        <v>5.84333333333333</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -578,23 +526,21 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="9" t="n">
         <v>5.9</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="9" t="n">
         <v>6.5</v>
       </c>
-      <c r="F7" s="12" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -629,13 +575,13 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -670,25 +616,23 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <v>3.418</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="9" t="n">
         <v>2.77</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="9" t="n">
         <v>2.974</v>
       </c>
-      <c r="F9" s="12" t="n">
-        <v>3.054</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -723,23 +667,21 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="n">
         <v>3.4</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="9" t="n">
         <v>2.8</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -774,13 +716,13 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -815,25 +757,23 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <v>1.464</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="9" t="n">
         <v>4.26</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="9" t="n">
         <v>5.552</v>
       </c>
-      <c r="F12" s="12" t="n">
-        <v>3.75866666666667</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -868,23 +808,21 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="n">
         <v>1.5</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="9" t="n">
         <v>4.35</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="9" t="n">
         <v>5.55</v>
       </c>
-      <c r="F13" s="12" t="n">
-        <v>4.35</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -919,13 +857,13 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -960,25 +898,23 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>12</v>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="n">
         <v>0.244</v>
       </c>
-      <c r="D15" s="11" t="n">
+      <c r="D15" s="9" t="n">
         <v>1.326</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="9" t="n">
         <v>2.026</v>
       </c>
-      <c r="F15" s="12" t="n">
-        <v>1.19866666666667</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1014,22 +950,20 @@
       <c r="AM15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D16" s="9" t="n">
         <v>1.3</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="12" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
